--- a/flows/ENFR_fund_flow_data.xlsx
+++ b/flows/ENFR_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2595"/>
+  <dimension ref="A1:B2612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26385,6 +26385,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2596">
+      <c r="A2596" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B2596" t="n">
+        <v>-2.344</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2612" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
